--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -3,10 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12465" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12465" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bayonet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="init" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -27,6 +29,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF0000FF"/>
       <sz val="11"/>
       <u val="single"/>
@@ -42,6 +52,20 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -55,8 +79,41 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -71,6 +128,37 @@
       <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -82,92 +170,6 @@
       <sz val="13"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -178,85 +180,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,104 +364,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -383,6 +385,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -411,27 +437,31 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -455,32 +485,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,10 +507,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -504,137 +519,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -642,11 +657,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1064,8 +1091,8 @@
   </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1126,40 +1153,40 @@
       </c>
     </row>
     <row r="2" ht="40" customHeight="1" s="1">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>http://47.114.59.169:8088/api/api/auth/login</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>http://218.244.157.108:9002/api/api/auth/login</t>
+        </is>
+      </c>
+      <c r="C2" s="7" t="inlineStr">
         <is>
           <t>{"isApp":"false","usernameOrPhone":"admin","password":"123456","rememberMe":"true"}</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="7" t="inlineStr">
         <is>
           <t>正常登陆</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="7" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="7" t="inlineStr">
         <is>
           <t>json</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="7" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="7" t="inlineStr">
         <is>
           <t>操作成功</t>
         </is>
@@ -1171,40 +1198,40 @@
       </c>
     </row>
     <row r="3" ht="28" customHeight="1" s="1">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>http://47.114.59.169:8088/api/api/auth/login</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>http://218.244.157.108:9002/api/api/auth/login</t>
+        </is>
+      </c>
+      <c r="C3" s="7" t="inlineStr">
         <is>
           <t>{"isApp": "false", "usernameOrPhone": "admin11", "password": "123456", "rememberMe": "true"}</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="7" t="inlineStr">
         <is>
           <t>输入错误的账号</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="7" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="7" t="inlineStr">
         <is>
           <t>json</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" s="7" t="inlineStr">
         <is>
           <t>用户名或密码错误！</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr">
+      <c r="H3" s="7" t="inlineStr">
         <is>
           <t>用户名或密码错误！</t>
         </is>
@@ -1216,40 +1243,40 @@
       </c>
     </row>
     <row r="4" ht="30" customHeight="1" s="1">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>http://47.114.59.169:8088/api/api/auth/login</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>http://218.244.157.108:9002/api/api/auth/login</t>
+        </is>
+      </c>
+      <c r="C4" s="7" t="inlineStr">
         <is>
           <t>{"isApp": "false", "usernameOrPhone": "admin", "password": "1234561", "rememberMe": "true"}</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="7" t="inlineStr">
         <is>
           <t>输入错误的密码</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="7" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="7" t="inlineStr">
         <is>
           <t>json</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="G4" s="7" t="inlineStr">
         <is>
           <t>用户名或密码错误！</t>
         </is>
       </c>
-      <c r="H4" s="4" t="inlineStr">
+      <c r="H4" s="7" t="inlineStr">
         <is>
           <t>用户名或密码错误！</t>
         </is>
@@ -1261,40 +1288,40 @@
       </c>
     </row>
     <row r="5" ht="34" customHeight="1" s="1">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>http://47.114.59.169:8088/api/api/auth/login</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>http://218.244.157.108:9002/api/api/auth/login</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
         <is>
           <t>{"isApp": "false", "usernameOrPhone": "", "password": "123456", "rememberMe": "true"}</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="7" t="inlineStr">
         <is>
           <t>账号为空</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="7" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="7" t="inlineStr">
         <is>
           <t>json</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="G5" s="7" t="inlineStr">
         <is>
           <t>用户名不能为空</t>
         </is>
       </c>
-      <c r="H5" s="4" t="inlineStr">
+      <c r="H5" s="7" t="inlineStr">
         <is>
           <t>用户名不能为空</t>
         </is>
@@ -1306,40 +1333,40 @@
       </c>
     </row>
     <row r="6" ht="35" customHeight="1" s="1">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>http://47.114.59.169:8088/api/api/auth/login</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
+        <is>
+          <t>http://218.244.157.108:9002/api/api/auth/login</t>
+        </is>
+      </c>
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>{"isApp": "false", "usernameOrPhone": "admin11", "password": "", "rememberMe": "true"}</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="7" t="inlineStr">
         <is>
           <t>密码为空</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="7" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="7" t="inlineStr">
         <is>
           <t>json</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G6" s="7" t="inlineStr">
         <is>
           <t>密码不能为空</t>
         </is>
       </c>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="H6" s="7" t="inlineStr">
         <is>
           <t>密码不能为空</t>
         </is>
@@ -1352,9 +1379,259 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" display="http://47.114.59.169:8088/api/api/auth/login" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" tooltip="http://218.244.157.108:9002/api/api/auth/login" display="http://218.244.157.108:9002/api/api/auth/login" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col width="11.625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="57.875" customWidth="1" style="1" min="2" max="2"/>
+    <col width="68.5" customWidth="1" style="1" min="3" max="3"/>
+    <col width="22" customWidth="1" style="1" min="5" max="5"/>
+    <col width="16.125" customWidth="1" style="1" min="6" max="6"/>
+    <col width="21.75" customWidth="1" style="1" min="7" max="7"/>
+    <col width="21" customWidth="1" style="1" min="8" max="8"/>
+    <col width="17.875" customWidth="1" style="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" customHeight="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>ExpectResult</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>ActualResult</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>TestResult</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="58" customHeight="1" s="1">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>http://218.244.157.108:9002/api/bs-bayonet/addBayonet</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>{"longitude":"115.89230","latitude":"28.676945","bayonetName":"大门","coords":"115.89230,28.676945","spatialCoordinateType":"BD-09","territoryId":"7","borderGps":"115.892771,28.677151|115.893831,28.676937","boundary":[["115.892771,28.677151"],["115.893831,28.676937"]]}</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>添加卡口</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>操作成功</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>卡口名称已存在！</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="90" customHeight="1" s="1">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>http://218.244.157.108:9002/api/bs-bayonet/updateBayonet</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>{"bayonetName":"大门1","coords":"115.89230,28.676945","spatialCoordinateType":"BD-09","territoryId":7,"id":52,"boundary":[["115.892771,28.677151"],["115.893831,28.676937"]],"borderGps":"115.892771,28.677151|115.893831,28.676937","latitude":"28.676945","longitude":"115.89230","territoryName":"百胜智能园区"}</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>编辑卡口</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>操作成功</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>操作成功</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="42" customHeight="1" s="1">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>http://218.244.157.108:9002/api/bs-bayonet/delBayonet</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>{"id":${id}}</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>删除卡口</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>操作成功</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>当前用户已在别处登录，请尝试更改密码或重新登录！</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" tooltip="http://218.244.157.108:9002/api/bs-bayonet/addBayonet" display="http://218.244.157.108:9002/api/bs-bayonet/addBayonet" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" tooltip="http://218.244.157.108:9002/api/bs-bayonet/updateBayonet" display="http://218.244.157.108:9002/api/bs-bayonet/updateBayonet" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" tooltip="http://218.244.157.108:9002/api/bs-bayonet/delBayonet" display="http://218.244.157.108:9002/api/bs-bayonet/delBayonet" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col width="12.625" customWidth="1" style="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>tel</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>13627058973</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/test_data/test_data.xlsx
+++ b/test_data/test_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12465" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="20490" windowHeight="7860" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="1" state="visible" r:id="rId1"/>
@@ -45,14 +45,22 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -66,14 +74,31 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -88,8 +113,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -97,6 +121,43 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -109,67 +170,6 @@
       <sz val="15"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -180,187 +180,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,13 +402,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -430,24 +434,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,7 +471,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,16 +486,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,10 +507,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -519,16 +519,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
@@ -540,112 +540,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1394,8 +1394,8 @@
   </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1491,11 +1491,7 @@
           <t>操作成功</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>卡口名称已存在！</t>
-        </is>
-      </c>
+      <c r="H2" s="2" t="n"/>
       <c r="I2" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
@@ -1536,11 +1532,7 @@
           <t>操作成功</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>操作成功</t>
-        </is>
-      </c>
+      <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="inlineStr">
         <is>
           <t>PASS</t>
@@ -1558,7 +1550,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>{"id":${id}}</t>
+          <t>{"id":"${id}"}</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -1581,11 +1573,7 @@
           <t>操作成功</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>当前用户已在别处登录，请尝试更改密码或重新登录！</t>
-        </is>
-      </c>
+      <c r="H4" s="2" t="n"/>
       <c r="I4" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
@@ -1627,8 +1615,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="n">
-        <v>13627058973</v>
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>17688896425</t>
+        </is>
       </c>
     </row>
   </sheetData>
